--- a/Hotel Management System.xlsx
+++ b/Hotel Management System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\saleel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A6F19-1D8D-414C-B55E-E98CAFDD13D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE97BF61-64F0-4577-99E7-483134750598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91C2DFB3-72D5-4B8E-9308-1586FED63683}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -640,13 +640,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C016E8-42A0-48E0-8FD7-2EE3797B86E6}">
   <dimension ref="B2:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BA15" sqref="BA15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,7 +995,7 @@
     <col min="26" max="26" width="2.33203125" customWidth="1"/>
     <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.44140625" customWidth="1"/>
+    <col min="29" max="29" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="2.33203125" customWidth="1"/>
     <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -1202,7 +1199,7 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>9998887770</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1229,7 +1226,7 @@
       <c r="O4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <v>9876543210</v>
       </c>
       <c r="Q4" s="4">
@@ -1259,7 +1256,7 @@
       <c r="AB4" s="4">
         <v>1</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="10">
         <v>45901.375</v>
       </c>
       <c r="AD4" s="3" t="s">
@@ -1301,10 +1298,10 @@
       <c r="AS4" s="4">
         <v>1</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="11">
         <v>45662</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AU4" s="11">
         <v>45665</v>
       </c>
       <c r="AV4" s="3" t="s">
@@ -1336,7 +1333,7 @@
       <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>9998887771</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1363,7 +1360,7 @@
       <c r="O5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="4">
         <v>9876543211</v>
       </c>
       <c r="Q5" s="4">
@@ -1393,7 +1390,7 @@
       <c r="AB5" s="4">
         <v>3</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="10">
         <v>45902.541666666664</v>
       </c>
       <c r="AD5" s="3" t="s">
@@ -1435,10 +1432,10 @@
       <c r="AS5" s="4">
         <v>2</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="11">
         <v>45667</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="11">
         <v>45672</v>
       </c>
       <c r="AV5" s="3" t="s">
@@ -1470,7 +1467,7 @@
       <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>9998887772</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1497,7 +1494,7 @@
       <c r="O6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>9876543212</v>
       </c>
       <c r="Q6" s="4">
@@ -1527,7 +1524,7 @@
       <c r="AB6" s="4">
         <v>4</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="10">
         <v>45903.4375</v>
       </c>
       <c r="AD6" s="3" t="s">
@@ -1569,10 +1566,10 @@
       <c r="AS6" s="4">
         <v>3</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AT6" s="11">
         <v>45669</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="11">
         <v>45671</v>
       </c>
       <c r="AV6" s="3" t="s">
@@ -1604,7 +1601,7 @@
       <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>9998887773</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1631,7 +1628,7 @@
       <c r="O7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="4">
         <v>9876543213</v>
       </c>
       <c r="Q7" s="4">
@@ -1661,7 +1658,7 @@
       <c r="AB7" s="4">
         <v>5</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="10">
         <v>45904.708333333336</v>
       </c>
       <c r="AD7" s="3" t="s">
@@ -1694,10 +1691,10 @@
       <c r="AS7" s="4">
         <v>4</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="11">
         <v>45672</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="11">
         <v>45677</v>
       </c>
       <c r="AV7" s="3" t="s">
@@ -1729,7 +1726,7 @@
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>9998887774</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1756,7 +1753,7 @@
       <c r="O8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="4">
         <v>9876543214</v>
       </c>
       <c r="Q8" s="4">
@@ -1786,7 +1783,7 @@
       <c r="AB8" s="4">
         <v>2</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="10">
         <v>45905.333333333336</v>
       </c>
       <c r="AD8" s="3" t="s">
@@ -1819,10 +1816,10 @@
       <c r="AS8" s="4">
         <v>3</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AT8" s="11">
         <v>45675</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AU8" s="11">
         <v>45679</v>
       </c>
       <c r="AV8" s="3" t="s">
@@ -1854,7 +1851,7 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>9998887775</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1872,7 +1869,7 @@
       <c r="O9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="4">
         <v>9876543215</v>
       </c>
       <c r="Q9" s="4">
@@ -1884,7 +1881,7 @@
       <c r="AB9" s="4">
         <v>1</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="10">
         <v>45906.395833333336</v>
       </c>
       <c r="AD9" s="3" t="s">
@@ -1917,10 +1914,10 @@
       <c r="AS9" s="4">
         <v>5</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AT9" s="11">
         <v>45689</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AU9" s="11">
         <v>45693</v>
       </c>
       <c r="AV9" s="3" t="s">
@@ -1952,7 +1949,7 @@
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>9998887776</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1970,7 +1967,7 @@
       <c r="O10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <v>9876543216</v>
       </c>
       <c r="Q10" s="4">
@@ -1982,7 +1979,7 @@
       <c r="AB10" s="4">
         <v>3</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="10">
         <v>45907.833333333336</v>
       </c>
       <c r="AD10" s="3" t="s">
@@ -2015,10 +2012,10 @@
       <c r="AS10" s="4">
         <v>6</v>
       </c>
-      <c r="AT10" s="12">
+      <c r="AT10" s="11">
         <v>45691</v>
       </c>
-      <c r="AU10" s="12">
+      <c r="AU10" s="11">
         <v>45694</v>
       </c>
       <c r="AV10" s="3" t="s">
@@ -2050,7 +2047,7 @@
       <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>9998887777</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2068,7 +2065,7 @@
       <c r="O11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="4">
         <v>9876543217</v>
       </c>
       <c r="Q11" s="4">
@@ -2080,7 +2077,7 @@
       <c r="AB11" s="4">
         <v>4</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="10">
         <v>45908.458333333336</v>
       </c>
       <c r="AD11" s="3" t="s">
@@ -2113,10 +2110,10 @@
       <c r="AS11" s="4">
         <v>4</v>
       </c>
-      <c r="AT11" s="12">
+      <c r="AT11" s="11">
         <v>45693</v>
       </c>
-      <c r="AU11" s="12">
+      <c r="AU11" s="11">
         <v>45696</v>
       </c>
       <c r="AV11" s="3" t="s">
@@ -2133,7 +2130,7 @@
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>9998887778</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2151,7 +2148,7 @@
       <c r="O12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>9876543218</v>
       </c>
       <c r="Q12" s="4">
@@ -2163,7 +2160,7 @@
       <c r="AB12" s="4">
         <v>5</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="10">
         <v>45909.645833333336</v>
       </c>
       <c r="AD12" s="3" t="s">
@@ -2196,10 +2193,10 @@
       <c r="AS12" s="4">
         <v>1</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AT12" s="11">
         <v>45695</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AU12" s="11">
         <v>45698</v>
       </c>
       <c r="AV12" s="3" t="s">
@@ -2216,7 +2213,7 @@
       <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>9998887779</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2234,7 +2231,7 @@
       <c r="O13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <v>9876543219</v>
       </c>
       <c r="Q13" s="4">
@@ -2246,7 +2243,7 @@
       <c r="AB13" s="4">
         <v>2</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="10">
         <v>45910.5</v>
       </c>
       <c r="AD13" s="3" t="s">
@@ -2279,10 +2276,10 @@
       <c r="AS13" s="4">
         <v>2</v>
       </c>
-      <c r="AT13" s="12">
+      <c r="AT13" s="11">
         <v>45698</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="11">
         <v>45702</v>
       </c>
       <c r="AV13" s="3" t="s">
@@ -2299,7 +2296,7 @@
       <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>9998887780</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2333,10 +2330,10 @@
       <c r="AS14" s="4">
         <v>5</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AT14" s="11">
         <v>45700</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AU14" s="11">
         <v>45704</v>
       </c>
       <c r="AV14" s="3" t="s">
@@ -2353,7 +2350,7 @@
       <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>9998887781</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2392,10 +2389,10 @@
       <c r="AS15" s="4">
         <v>6</v>
       </c>
-      <c r="AT15" s="12">
+      <c r="AT15" s="11">
         <v>45703</v>
       </c>
-      <c r="AU15" s="12">
+      <c r="AU15" s="11">
         <v>45708</v>
       </c>
       <c r="AV15" s="3" t="s">
@@ -2412,7 +2409,7 @@
       <c r="D16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>9998887782</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2445,10 +2442,10 @@
       <c r="AS16" s="4">
         <v>7</v>
       </c>
-      <c r="AT16" s="12">
+      <c r="AT16" s="11">
         <v>45706</v>
       </c>
-      <c r="AU16" s="12">
+      <c r="AU16" s="11">
         <v>45710</v>
       </c>
       <c r="AV16" s="3" t="s">
@@ -2465,7 +2462,7 @@
       <c r="D17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>9998887783</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2498,10 +2495,10 @@
       <c r="AS17" s="4">
         <v>5</v>
       </c>
-      <c r="AT17" s="12">
+      <c r="AT17" s="11">
         <v>45708</v>
       </c>
-      <c r="AU17" s="12">
+      <c r="AU17" s="11">
         <v>45712</v>
       </c>
       <c r="AV17" s="3" t="s">
@@ -2518,7 +2515,7 @@
       <c r="D18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>9998887784</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2551,10 +2548,10 @@
       <c r="AS18" s="4">
         <v>4</v>
       </c>
-      <c r="AT18" s="12">
+      <c r="AT18" s="11">
         <v>45710</v>
       </c>
-      <c r="AU18" s="12">
+      <c r="AU18" s="11">
         <v>45713</v>
       </c>
       <c r="AV18" s="3" t="s">
@@ -2571,7 +2568,7 @@
       <c r="D19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>9998887785</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2604,10 +2601,10 @@
       <c r="AS19" s="4">
         <v>5</v>
       </c>
-      <c r="AT19" s="12">
+      <c r="AT19" s="11">
         <v>45717</v>
       </c>
-      <c r="AU19" s="12">
+      <c r="AU19" s="11">
         <v>45721</v>
       </c>
       <c r="AV19" s="3" t="s">
@@ -2624,7 +2621,7 @@
       <c r="D20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>9998887786</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2657,10 +2654,10 @@
       <c r="AS20" s="4">
         <v>1</v>
       </c>
-      <c r="AT20" s="12">
+      <c r="AT20" s="11">
         <v>45718</v>
       </c>
-      <c r="AU20" s="12">
+      <c r="AU20" s="11">
         <v>45722</v>
       </c>
       <c r="AV20" s="3" t="s">
@@ -2677,7 +2674,7 @@
       <c r="D21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>9998887787</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2710,10 +2707,10 @@
       <c r="AS21" s="4">
         <v>2</v>
       </c>
-      <c r="AT21" s="12">
+      <c r="AT21" s="11">
         <v>45719</v>
       </c>
-      <c r="AU21" s="12">
+      <c r="AU21" s="11">
         <v>45723</v>
       </c>
       <c r="AV21" s="3" t="s">
@@ -2730,7 +2727,7 @@
       <c r="D22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>9998887788</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2763,10 +2760,10 @@
       <c r="AS22" s="4">
         <v>1</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="AT22" s="11">
         <v>45721</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="AU22" s="11">
         <v>45725</v>
       </c>
       <c r="AV22" s="3" t="s">
@@ -2783,7 +2780,7 @@
       <c r="D23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>9998887789</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2816,10 +2813,10 @@
       <c r="AS23" s="4">
         <v>2</v>
       </c>
-      <c r="AT23" s="12">
+      <c r="AT23" s="11">
         <v>45723</v>
       </c>
-      <c r="AU23" s="12">
+      <c r="AU23" s="11">
         <v>45728</v>
       </c>
       <c r="AV23" s="3" t="s">
@@ -2854,10 +2851,10 @@
       <c r="AS24" s="4">
         <v>3</v>
       </c>
-      <c r="AT24" s="12">
+      <c r="AT24" s="11">
         <v>45726</v>
       </c>
-      <c r="AU24" s="12">
+      <c r="AU24" s="11">
         <v>45731</v>
       </c>
       <c r="AV24" s="3" t="s">
@@ -2877,10 +2874,10 @@
       <c r="AS25" s="4">
         <v>5</v>
       </c>
-      <c r="AT25" s="12">
+      <c r="AT25" s="11">
         <v>45728</v>
       </c>
-      <c r="AU25" s="12">
+      <c r="AU25" s="11">
         <v>45734</v>
       </c>
       <c r="AV25" s="3" t="s">
@@ -2900,10 +2897,10 @@
       <c r="AS26" s="4">
         <v>7</v>
       </c>
-      <c r="AT26" s="12">
+      <c r="AT26" s="11">
         <v>45731</v>
       </c>
-      <c r="AU26" s="12">
+      <c r="AU26" s="11">
         <v>45735</v>
       </c>
       <c r="AV26" s="3" t="s">
@@ -2923,10 +2920,10 @@
       <c r="AS27" s="4">
         <v>8</v>
       </c>
-      <c r="AT27" s="12">
+      <c r="AT27" s="11">
         <v>45732</v>
       </c>
-      <c r="AU27" s="12">
+      <c r="AU27" s="11">
         <v>45736</v>
       </c>
       <c r="AV27" s="3" t="s">
@@ -2946,10 +2943,10 @@
       <c r="AS28" s="4">
         <v>8</v>
       </c>
-      <c r="AT28" s="12">
+      <c r="AT28" s="11">
         <v>45734</v>
       </c>
-      <c r="AU28" s="12">
+      <c r="AU28" s="11">
         <v>45738</v>
       </c>
       <c r="AV28" s="3" t="s">
